--- a/Tester Results/RECORDER_EFFECT_AVG_BY_SEX_METRIC.xlsx
+++ b/Tester Results/RECORDER_EFFECT_AVG_BY_SEX_METRIC.xlsx
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.4670781893004115</v>
+        <v>0.4506172839506173</v>
       </c>
       <c r="D2" t="n">
-        <v>-1804.507447530864</v>
+        <v>-1769.657081790124</v>
       </c>
     </row>
     <row r="3">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5030864197530864</v>
+        <v>0.5231481481481481</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.600462962962963</v>
+        <v>-0.6680555555555578</v>
       </c>
     </row>
     <row r="4">
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.5162037037037036</v>
+        <v>-0.4637345679012346</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8013888888888889</v>
+        <v>0.7324074074074058</v>
       </c>
     </row>
     <row r="5">
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.8960905349794238</v>
+        <v>-0.9176954732510287</v>
       </c>
       <c r="D5" t="n">
-        <v>8128.272177469135</v>
+        <v>8132.886918209876</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.5246913580246914</v>
+        <v>-0.882716049382716</v>
       </c>
       <c r="D6" t="n">
-        <v>2.560185185185187</v>
+        <v>5.812962962962967</v>
       </c>
     </row>
     <row r="7">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.6718106995884773</v>
+        <v>-0.8364197530864198</v>
       </c>
       <c r="D7" t="n">
-        <v>59.18225308641976</v>
+        <v>81.35162037037037</v>
       </c>
     </row>
     <row r="8">
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8657407407407407</v>
+        <v>0.8580246913580247</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.229629629629631</v>
+        <v>-1.22037037037037</v>
       </c>
     </row>
   </sheetData>
